--- a/papers/tg11-dare/data_tg.xlsx
+++ b/papers/tg11-dare/data_tg.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20515"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="860" yWindow="0" windowWidth="25600" windowHeight="16360" tabRatio="159"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16360" tabRatio="159"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>Genome</t>
   </si>
@@ -136,9 +136,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -151,12 +153,14 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="8">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
     <cellStyle name="Heading 2" xfId="1" builtinId="17"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -486,10 +490,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:L5"/>
+  <dimension ref="A3:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -613,6 +617,38 @@
         <v>118.5</v>
       </c>
     </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="C6">
+        <v>10</v>
+      </c>
+      <c r="D6">
+        <v>115</v>
+      </c>
+      <c r="E6">
+        <v>32</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>64</v>
+      </c>
+      <c r="H6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6">
+        <v>64</v>
+      </c>
+      <c r="J6">
+        <v>1032.4000000000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/papers/tg11-dare/data_tg.xlsx
+++ b/papers/tg11-dare/data_tg.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>Genome</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>Machine/bigjob</t>
+  </si>
+  <si>
+    <t>oliver</t>
   </si>
 </sst>
 </file>
@@ -493,7 +496,7 @@
   <dimension ref="A3:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -640,7 +643,7 @@
         <v>64</v>
       </c>
       <c r="H6" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="I6">
         <v>64</v>

--- a/papers/tg11-dare/data_tg.xlsx
+++ b/papers/tg11-dare/data_tg.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
   <si>
     <t>Genome</t>
   </si>
@@ -36,9 +36,6 @@
     <t>Ref Gnome index files size(GB)</t>
   </si>
   <si>
-    <t>read file size</t>
-  </si>
-  <si>
     <t>Number of read files</t>
   </si>
   <si>
@@ -67,13 +64,25 @@
   </si>
   <si>
     <t>oliver</t>
+  </si>
+  <si>
+    <t>Ranger, QB</t>
+  </si>
+  <si>
+    <t>Hg18</t>
+  </si>
+  <si>
+    <t>read file size(MB)</t>
+  </si>
+  <si>
+    <t>Distributed Runs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -112,6 +121,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -121,7 +138,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -138,8 +155,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="8">
+  <cellStyleXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -148,22 +174,49 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="8"/>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="21">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Heading 1" xfId="8" builtinId="16"/>
     <cellStyle name="Heading 2" xfId="1" builtinId="17"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -493,10 +546,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:L6"/>
+  <dimension ref="A2:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -506,7 +559,12 @@
     <col min="12" max="12" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:12" s="2" customFormat="1" ht="49" thickBot="1">
+    <row r="2" spans="1:12" s="3" customFormat="1" ht="20" thickBot="1">
+      <c r="A2" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="2" customFormat="1" ht="50" thickTop="1" thickBot="1">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -517,31 +575,31 @@
         <v>3</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="H3" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="16" thickTop="1">
@@ -567,7 +625,7 @@
         <v>60</v>
       </c>
       <c r="H4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I4">
         <v>32</v>
@@ -605,7 +663,7 @@
         <v>64</v>
       </c>
       <c r="H5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I5">
         <v>32</v>
@@ -643,13 +701,127 @@
         <v>64</v>
       </c>
       <c r="H6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I6">
         <v>64</v>
       </c>
       <c r="J6">
         <v>1032.4000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.435</v>
+      </c>
+      <c r="C9">
+        <v>10</v>
+      </c>
+      <c r="D9">
+        <v>134</v>
+      </c>
+      <c r="E9">
+        <v>30</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <v>60</v>
+      </c>
+      <c r="H9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9">
+        <v>32</v>
+      </c>
+      <c r="J9">
+        <v>955.25</v>
+      </c>
+      <c r="K9">
+        <v>195.71</v>
+      </c>
+      <c r="L9">
+        <v>169.85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="C10">
+        <v>10</v>
+      </c>
+      <c r="D10">
+        <v>115</v>
+      </c>
+      <c r="E10">
+        <v>32</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <v>64</v>
+      </c>
+      <c r="H10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10">
+        <v>32</v>
+      </c>
+      <c r="J10">
+        <v>972.46</v>
+      </c>
+      <c r="K10">
+        <v>484.63</v>
+      </c>
+      <c r="L10">
+        <v>195.92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="1">
+        <v>127</v>
+      </c>
+      <c r="C11">
+        <v>40</v>
+      </c>
+      <c r="D11">
+        <v>115</v>
+      </c>
+      <c r="E11">
+        <v>32</v>
+      </c>
+      <c r="F11">
+        <v>8</v>
+      </c>
+      <c r="G11">
+        <v>256</v>
+      </c>
+      <c r="H11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11">
+        <v>128</v>
+      </c>
+      <c r="J11">
+        <v>7582</v>
+      </c>
+      <c r="K11">
+        <v>1846.6</v>
+      </c>
+      <c r="L11">
+        <v>221.71</v>
       </c>
     </row>
   </sheetData>

--- a/papers/tg11-dare/data_tg.xlsx
+++ b/papers/tg11-dare/data_tg.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20515"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16360" tabRatio="159"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16360" tabRatio="159" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="42">
   <si>
     <t>Genome</t>
   </si>
@@ -76,13 +77,82 @@
   </si>
   <si>
     <t>Distributed Runs</t>
+  </si>
+  <si>
+    <t>QB</t>
+  </si>
+  <si>
+    <t>time for matches (sec)</t>
+  </si>
+  <si>
+    <t>Number of cores per task</t>
+  </si>
+  <si>
+    <t>Size</t>
+  </si>
+  <si>
+    <t>Cyder to QB(s)</t>
+  </si>
+  <si>
+    <t>Cyder to Ranger(S)</t>
+  </si>
+  <si>
+    <t>Cyder to QB &amp; QB to Ranger(s)</t>
+  </si>
+  <si>
+    <t>QB to Ranger(s)</t>
+  </si>
+  <si>
+    <t>Min Total time(s)</t>
+  </si>
+  <si>
+    <t>         N/A</t>
+  </si>
+  <si>
+    <t>      N/A</t>
+  </si>
+  <si>
+    <t>       N/A</t>
+  </si>
+  <si>
+    <t>               N/A</t>
+  </si>
+  <si>
+    <t>File transfer times</t>
+  </si>
+  <si>
+    <t>Distributed runs</t>
+  </si>
+  <si>
+    <t>Gridftp</t>
+  </si>
+  <si>
+    <t>Speeds with Gridftp MBPS</t>
+  </si>
+  <si>
+    <t>Cyder to QB</t>
+  </si>
+  <si>
+    <t>Cyder to Ranger</t>
+  </si>
+  <si>
+    <t>QB to Ranger</t>
+  </si>
+  <si>
+    <t>Speeds with SCP MBPS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">globus-url-copy -vb -tcp-bs 2097152 -p 4 </t>
+  </si>
+  <si>
+    <t>options used</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -129,6 +199,34 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color rgb="FF1F497D"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color rgb="FF1F497D"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -138,7 +236,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -164,8 +262,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF4F81BD"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -187,16 +294,74 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="8"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
   </cellXfs>
-  <cellStyles count="21">
+  <cellStyles count="65">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -206,6 +371,28 @@
     <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
     <cellStyle name="Heading 1" xfId="8" builtinId="16"/>
     <cellStyle name="Heading 2" xfId="1" builtinId="17"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
@@ -217,6 +404,28 @@
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -546,10 +755,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:L11"/>
+  <dimension ref="A2:L13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M13" sqref="A3:M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -824,6 +1033,452 @@
         <v>221.71</v>
       </c>
     </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="1">
+        <v>127</v>
+      </c>
+      <c r="C13">
+        <v>40</v>
+      </c>
+      <c r="D13">
+        <v>115</v>
+      </c>
+      <c r="E13">
+        <v>32</v>
+      </c>
+      <c r="F13">
+        <v>8</v>
+      </c>
+      <c r="G13">
+        <v>256</v>
+      </c>
+      <c r="H13" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13">
+        <v>256</v>
+      </c>
+      <c r="J13">
+        <v>9586</v>
+      </c>
+      <c r="K13">
+        <v>2037</v>
+      </c>
+      <c r="L13">
+        <v>164.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="16.5" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" customWidth="1"/>
+    <col min="10" max="10" width="15.5" customWidth="1"/>
+    <col min="11" max="11" width="15.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="20" thickBot="1">
+      <c r="A1" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="4" customFormat="1" ht="49" thickTop="1">
+      <c r="B2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="D4" s="1">
+        <v>10</v>
+      </c>
+      <c r="E4" s="1">
+        <v>115</v>
+      </c>
+      <c r="F4" s="1">
+        <v>32</v>
+      </c>
+      <c r="G4" s="1">
+        <v>2</v>
+      </c>
+      <c r="H4" s="1">
+        <v>64</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="1">
+        <v>64</v>
+      </c>
+      <c r="K4" s="1">
+        <v>1032.4000000000001</v>
+      </c>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="D5" s="1">
+        <v>10</v>
+      </c>
+      <c r="E5" s="1">
+        <v>115</v>
+      </c>
+      <c r="F5" s="1">
+        <v>32</v>
+      </c>
+      <c r="G5" s="1">
+        <v>2</v>
+      </c>
+      <c r="H5" s="1">
+        <v>64</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" s="1">
+        <v>32</v>
+      </c>
+      <c r="K5" s="1">
+        <v>926.6</v>
+      </c>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="1">
+        <v>127</v>
+      </c>
+      <c r="D7" s="1">
+        <v>40</v>
+      </c>
+      <c r="E7" s="1">
+        <v>115</v>
+      </c>
+      <c r="F7" s="1">
+        <v>32</v>
+      </c>
+      <c r="G7" s="1">
+        <v>8</v>
+      </c>
+      <c r="H7" s="1">
+        <v>256</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" s="1">
+        <v>256</v>
+      </c>
+      <c r="K7" s="1">
+        <v>9586</v>
+      </c>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="1">
+        <v>127</v>
+      </c>
+      <c r="D8" s="1">
+        <v>40</v>
+      </c>
+      <c r="E8" s="1">
+        <v>115</v>
+      </c>
+      <c r="F8" s="1">
+        <v>32</v>
+      </c>
+      <c r="G8" s="1">
+        <v>8</v>
+      </c>
+      <c r="H8" s="1">
+        <v>256</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" s="1">
+        <v>128</v>
+      </c>
+      <c r="K8" s="1">
+        <v>7582</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" s="9" customFormat="1" ht="33" thickBot="1">
+      <c r="C15" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="16" thickTop="1">
+      <c r="B16" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="8">
+        <v>70</v>
+      </c>
+      <c r="D16">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="B17" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="8">
+        <v>6</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="B18" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="8">
+        <v>24</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="46" thickBot="1">
+      <c r="B19" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="16" thickTop="1"/>
+    <row r="22" spans="1:11">
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+    </row>
+    <row r="24" spans="1:11" ht="20" thickBot="1">
+      <c r="A24" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="16" thickTop="1">
+      <c r="A25" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="96" thickBot="1">
+      <c r="A26" s="6"/>
+      <c r="B26" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="16" thickTop="1">
+      <c r="A27" s="7">
+        <v>1</v>
+      </c>
+      <c r="B27" s="7">
+        <v>127</v>
+      </c>
+      <c r="C27" s="7">
+        <v>1814.29</v>
+      </c>
+      <c r="D27" s="7">
+        <v>21166.67</v>
+      </c>
+      <c r="E27" s="7">
+        <v>7105.67</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G27" s="7">
+        <v>7105</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="7">
+        <v>2</v>
+      </c>
+      <c r="B28" s="7">
+        <v>9</v>
+      </c>
+      <c r="C28" s="7">
+        <v>128.57</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G28" s="7">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="7">
+        <v>3</v>
+      </c>
+      <c r="B29" s="7">
+        <v>3.81</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F29" s="7">
+        <v>158.33000000000001</v>
+      </c>
+      <c r="G29" s="7">
+        <v>158.33000000000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/papers/tg11-dare/data_tg.xlsx
+++ b/papers/tg11-dare/data_tg.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20515"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16360" tabRatio="159" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="159" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="46">
   <si>
     <t>Genome</t>
   </si>
@@ -146,6 +146,18 @@
   </si>
   <si>
     <t>options used</t>
+  </si>
+  <si>
+    <t>Ranger</t>
+  </si>
+  <si>
+    <t>Bgluame</t>
+  </si>
+  <si>
+    <t>QB, Ranger</t>
+  </si>
+  <si>
+    <t>All concurrent</t>
   </si>
 </sst>
 </file>
@@ -272,7 +284,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="65">
+  <cellStyleXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -282,6 +294,38 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -361,7 +405,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
   </cellXfs>
-  <cellStyles count="65">
+  <cellStyles count="97">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -393,6 +437,22 @@
     <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
     <cellStyle name="Heading 1" xfId="8" builtinId="16"/>
     <cellStyle name="Heading 2" xfId="1" builtinId="17"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
@@ -426,6 +486,22 @@
     <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1083,10 +1159,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N29"/>
+  <dimension ref="A1:N35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1094,8 +1170,8 @@
     <col min="2" max="2" width="16.5" customWidth="1"/>
     <col min="3" max="3" width="14.6640625" customWidth="1"/>
     <col min="4" max="4" width="15.6640625" customWidth="1"/>
-    <col min="9" max="9" width="12.33203125" customWidth="1"/>
-    <col min="10" max="10" width="15.5" customWidth="1"/>
+    <col min="8" max="8" width="16.6640625" customWidth="1"/>
+    <col min="10" max="10" width="16.83203125" customWidth="1"/>
     <col min="11" max="11" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1103,6 +1179,9 @@
       <c r="A1" s="3" t="s">
         <v>33</v>
       </c>
+      <c r="C1" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="2" spans="1:14" s="4" customFormat="1" ht="49" thickTop="1">
       <c r="B2" s="5" t="s">
@@ -1124,13 +1203,13 @@
         <v>21</v>
       </c>
       <c r="H2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="J2" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>12</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>20</v>
@@ -1140,38 +1219,55 @@
       <c r="N2" s="5"/>
     </row>
     <row r="3" spans="1:14">
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.435</v>
+      </c>
+      <c r="D3" s="1">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1">
+        <v>134</v>
+      </c>
+      <c r="F3" s="1">
+        <v>30</v>
+      </c>
+      <c r="G3" s="1">
+        <v>2</v>
+      </c>
+      <c r="H3" s="1">
+        <v>64</v>
+      </c>
+      <c r="I3" s="1">
+        <v>64</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" s="1">
+        <v>719</v>
+      </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4">
-        <v>1</v>
-      </c>
       <c r="B4" s="1" t="s">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="C4" s="1">
-        <v>1.7</v>
+        <v>0.435</v>
       </c>
       <c r="D4" s="1">
         <v>10</v>
       </c>
       <c r="E4" s="1">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="F4" s="1">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G4" s="1">
         <v>2</v>
@@ -1179,52 +1275,49 @@
       <c r="H4" s="1">
         <v>64</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" s="1">
+      <c r="I4" s="1">
         <v>64</v>
       </c>
+      <c r="J4" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="K4" s="1">
-        <v>1032.4000000000001</v>
+        <v>1067</v>
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5">
-        <v>2</v>
-      </c>
       <c r="B5" s="1" t="s">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="C5" s="1">
-        <v>1.7</v>
+        <v>0.435</v>
       </c>
       <c r="D5" s="1">
         <v>10</v>
       </c>
       <c r="E5" s="1">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="F5" s="1">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G5" s="1">
         <v>2</v>
       </c>
       <c r="H5" s="1">
+        <v>32</v>
+      </c>
+      <c r="I5" s="1">
         <v>64</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J5" s="1">
-        <v>32</v>
+      <c r="J5" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="K5" s="1">
-        <v>926.6</v>
+        <v>919</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
@@ -1246,236 +1339,446 @@
       <c r="N6" s="1"/>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7">
-        <v>3</v>
-      </c>
       <c r="B7" s="1" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C7" s="1">
-        <v>127</v>
+        <v>1.7</v>
       </c>
       <c r="D7" s="1">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="E7" s="1">
-        <v>115</v>
+        <v>169</v>
       </c>
       <c r="F7" s="1">
         <v>32</v>
       </c>
       <c r="G7" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H7" s="1">
-        <v>256</v>
-      </c>
-      <c r="I7" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I7" s="1">
+        <v>64</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="1">
-        <v>256</v>
-      </c>
       <c r="K7" s="1">
-        <v>9586</v>
+        <v>924</v>
       </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8">
-        <v>4</v>
-      </c>
       <c r="B8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="D8" s="1">
+        <v>10</v>
+      </c>
+      <c r="E8" s="1">
+        <v>169</v>
+      </c>
+      <c r="F8" s="1">
+        <v>32</v>
+      </c>
+      <c r="G8" s="1">
+        <v>2</v>
+      </c>
+      <c r="H8" s="1">
+        <v>64</v>
+      </c>
+      <c r="I8" s="1">
+        <v>64</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="B9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="D9" s="1">
+        <v>10</v>
+      </c>
+      <c r="E9" s="1">
+        <v>169</v>
+      </c>
+      <c r="F9" s="1">
+        <v>32</v>
+      </c>
+      <c r="G9" s="1">
+        <v>2</v>
+      </c>
+      <c r="H9" s="1">
+        <v>32</v>
+      </c>
+      <c r="I9" s="1">
+        <v>64</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="B10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="D10" s="1">
+        <v>10</v>
+      </c>
+      <c r="E10" s="1">
+        <v>169</v>
+      </c>
+      <c r="F10" s="1">
+        <v>32</v>
+      </c>
+      <c r="G10" s="1">
+        <v>2</v>
+      </c>
+      <c r="H10" s="1">
+        <v>64</v>
+      </c>
+      <c r="I10" s="1">
+        <v>64</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K10" s="1">
+        <v>1032.4000000000001</v>
+      </c>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="B11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="D11" s="1">
+        <v>10</v>
+      </c>
+      <c r="E11" s="1">
+        <v>169</v>
+      </c>
+      <c r="F11" s="1">
+        <v>32</v>
+      </c>
+      <c r="G11" s="1">
+        <v>2</v>
+      </c>
+      <c r="H11" s="1">
+        <v>32</v>
+      </c>
+      <c r="I11" s="1">
+        <v>64</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K11" s="1">
+        <v>926.6</v>
+      </c>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="B13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C13" s="1">
         <v>127</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D13" s="1">
         <v>40</v>
       </c>
-      <c r="E8" s="1">
-        <v>115</v>
-      </c>
-      <c r="F8" s="1">
-        <v>32</v>
-      </c>
-      <c r="G8" s="1">
+      <c r="E13" s="1">
+        <v>169</v>
+      </c>
+      <c r="F13" s="1">
+        <v>32</v>
+      </c>
+      <c r="G13" s="1">
         <v>8</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H13" s="1">
         <v>256</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="I13" s="1">
+        <v>256</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K13" s="1">
+        <v>9586</v>
+      </c>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="B14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="1">
+        <v>127</v>
+      </c>
+      <c r="D14" s="1">
+        <v>40</v>
+      </c>
+      <c r="E14" s="1">
+        <v>169</v>
+      </c>
+      <c r="F14" s="1">
+        <v>32</v>
+      </c>
+      <c r="G14" s="1">
+        <v>8</v>
+      </c>
+      <c r="H14" s="1">
+        <v>256</v>
+      </c>
+      <c r="I14" s="1">
+        <v>256</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K14" s="1"/>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="B15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="1">
+        <v>127</v>
+      </c>
+      <c r="D15" s="1">
+        <v>40</v>
+      </c>
+      <c r="E15" s="1">
+        <v>169</v>
+      </c>
+      <c r="F15" s="1">
+        <v>32</v>
+      </c>
+      <c r="G15" s="1">
+        <v>8</v>
+      </c>
+      <c r="H15" s="1">
+        <v>128</v>
+      </c>
+      <c r="I15" s="1">
+        <v>256</v>
+      </c>
+      <c r="J15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J8" s="1">
+      <c r="K15" s="1">
+        <v>7582</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" s="9" customFormat="1" ht="33" thickBot="1">
+      <c r="C21" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="16" thickTop="1">
+      <c r="B22" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="8">
+        <v>70</v>
+      </c>
+      <c r="D22">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="B23" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="8">
+        <v>6</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="B24" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="8">
+        <v>24</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="46" thickBot="1">
+      <c r="B25" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="16" thickTop="1"/>
+    <row r="28" spans="1:11">
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+    </row>
+    <row r="30" spans="1:11" ht="20" thickBot="1">
+      <c r="A30" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="16" thickTop="1">
+      <c r="A31" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="96" thickBot="1">
+      <c r="A32" s="6"/>
+      <c r="B32" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="16" thickTop="1">
+      <c r="A33" s="7">
+        <v>1</v>
+      </c>
+      <c r="B33" s="7">
+        <v>127</v>
+      </c>
+      <c r="C33" s="7">
+        <v>1814.29</v>
+      </c>
+      <c r="D33" s="7">
+        <v>21166.67</v>
+      </c>
+      <c r="E33" s="7">
+        <v>7105.67</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G33" s="7">
+        <v>7105</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="7">
+        <v>2</v>
+      </c>
+      <c r="B34" s="7">
+        <v>9</v>
+      </c>
+      <c r="C34" s="7">
+        <v>128.57</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G34" s="7">
         <v>128</v>
       </c>
-      <c r="K8" s="1">
-        <v>7582</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" s="9" customFormat="1" ht="33" thickBot="1">
-      <c r="C15" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="16" thickTop="1">
-      <c r="B16" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" s="8">
-        <v>70</v>
-      </c>
-      <c r="D16">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="B17" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" s="8">
-        <v>6</v>
-      </c>
-      <c r="D17" s="1">
-        <v>1.8</v>
-      </c>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="B18" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" s="8">
-        <v>24</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="46" thickBot="1">
-      <c r="B19" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="16" thickTop="1"/>
-    <row r="22" spans="1:11">
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-    </row>
-    <row r="24" spans="1:11" ht="20" thickBot="1">
-      <c r="A24" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="16" thickTop="1">
-      <c r="A25" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="96" thickBot="1">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="16" thickTop="1">
-      <c r="A27" s="7">
-        <v>1</v>
-      </c>
-      <c r="B27" s="7">
-        <v>127</v>
-      </c>
-      <c r="C27" s="7">
-        <v>1814.29</v>
-      </c>
-      <c r="D27" s="7">
-        <v>21166.67</v>
-      </c>
-      <c r="E27" s="7">
-        <v>7105.67</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G27" s="7">
-        <v>7105</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
-      <c r="A28" s="7">
-        <v>2</v>
-      </c>
-      <c r="B28" s="7">
-        <v>9</v>
-      </c>
-      <c r="C28" s="7">
-        <v>128.57</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E28" s="7" t="s">
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="7">
+        <v>3</v>
+      </c>
+      <c r="B35" s="7">
+        <v>3.81</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D35" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F28" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G28" s="7">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
-      <c r="A29" s="7">
-        <v>3</v>
-      </c>
-      <c r="B29" s="7">
-        <v>3.81</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D29" s="7" t="s">
+      <c r="E35" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E29" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F29" s="7">
+      <c r="F35" s="7">
         <v>158.33000000000001</v>
       </c>
-      <c r="G29" s="7">
+      <c r="G35" s="7">
         <v>158.33000000000001</v>
       </c>
     </row>

--- a/papers/tg11-dare/data_tg.xlsx
+++ b/papers/tg11-dare/data_tg.xlsx
@@ -1161,8 +1161,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1401,7 +1401,9 @@
       <c r="J8" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="K8" s="1"/>
+      <c r="K8" s="1">
+        <v>1145</v>
+      </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
@@ -1434,7 +1436,9 @@
       <c r="J9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K9" s="1"/>
+      <c r="K9" s="1">
+        <v>1170</v>
+      </c>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>

--- a/papers/tg11-dare/data_tg.xlsx
+++ b/papers/tg11-dare/data_tg.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="159" activeTab="1"/>
+    <workbookView xWindow="1340" yWindow="-200" windowWidth="24800" windowHeight="15860" tabRatio="159" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
@@ -163,8 +163,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="11">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -229,15 +229,19 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF000000"/>
+      <color indexed="8"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Verdana"/>
     </font>
   </fonts>
   <fills count="2">
@@ -284,104 +288,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="97">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -389,7 +301,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="8"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="4"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -405,107 +317,15 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
   </cellXfs>
-  <cellStyles count="97">
+  <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
-    <cellStyle name="Heading 1" xfId="8" builtinId="16"/>
+    <cellStyle name="Heading 1" xfId="4" builtinId="16"/>
     <cellStyle name="Heading 2" xfId="1" builtinId="17"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -830,14 +650,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+  <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A2:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M13" sqref="A3:M13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="11.5" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
@@ -1148,9 +969,11 @@
       </c>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
   </extLst>
@@ -1158,14 +981,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+  <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:N35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
       <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="16.5" customWidth="1"/>
     <col min="3" max="3" width="14.6640625" customWidth="1"/>
@@ -1787,10 +1611,11 @@
       </c>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
   </extLst>

--- a/papers/tg11-dare/data_tg.xlsx
+++ b/papers/tg11-dare/data_tg.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1340" yWindow="-200" windowWidth="24800" windowHeight="15860" tabRatio="159" activeTab="1"/>
+    <workbookView xWindow="10800" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="159" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="51">
   <si>
     <t>Genome</t>
   </si>
@@ -158,13 +158,28 @@
   </si>
   <si>
     <t>All concurrent</t>
+  </si>
+  <si>
+    <t>cloud-SI</t>
+  </si>
+  <si>
+    <t>Number of read files or tasks</t>
+  </si>
+  <si>
+    <t>cores per resource</t>
+  </si>
+  <si>
+    <t>resource</t>
+  </si>
+  <si>
+    <t>cloud-SI, QB, Ranger</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="11">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -229,19 +244,15 @@
     </font>
     <font>
       <sz val="12"/>
-      <color indexed="8"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
-      <color indexed="8"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Verdana"/>
     </font>
   </fonts>
   <fills count="2">
@@ -288,12 +299,108 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -301,7 +408,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="4"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="8"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -317,15 +424,111 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="101">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="Heading 1" xfId="4" builtinId="16"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Heading 1" xfId="8" builtinId="16"/>
     <cellStyle name="Heading 2" xfId="1" builtinId="17"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
 </file>
 
@@ -650,15 +853,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <sheetPr published="0" enableFormatConditionsCalculation="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M13" sqref="A3:M13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="11.5" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
@@ -969,11 +1171,9 @@
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
-  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
   </extLst>
@@ -981,21 +1181,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <sheetPr published="0" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:N35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="16.5" customWidth="1"/>
     <col min="3" max="3" width="14.6640625" customWidth="1"/>
     <col min="4" max="4" width="15.6640625" customWidth="1"/>
+    <col min="7" max="7" width="19.6640625" customWidth="1"/>
     <col min="8" max="8" width="16.6640625" customWidth="1"/>
-    <col min="10" max="10" width="16.83203125" customWidth="1"/>
+    <col min="10" max="10" width="19.33203125" customWidth="1"/>
     <col min="11" max="11" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1007,7 +1207,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="4" customFormat="1" ht="49" thickTop="1">
+    <row r="2" spans="1:14" s="4" customFormat="1" ht="65" thickTop="1">
       <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
@@ -1021,19 +1221,19 @@
         <v>17</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>21</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>7</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>20</v>
@@ -1042,7 +1242,7 @@
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" ht="16" customHeight="1">
       <c r="B3" s="1" t="s">
         <v>43</v>
       </c>
@@ -1147,36 +1347,56 @@
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
     </row>
-    <row r="6" spans="1:14">
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
+    <row r="6" spans="1:14" ht="16" customHeight="1">
+      <c r="B6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.435</v>
+      </c>
+      <c r="D6" s="1">
+        <v>10</v>
+      </c>
+      <c r="E6" s="1">
+        <v>134</v>
+      </c>
+      <c r="F6" s="1">
+        <v>30</v>
+      </c>
+      <c r="G6" s="1">
+        <v>2</v>
+      </c>
+      <c r="H6" s="1">
+        <v>64</v>
+      </c>
+      <c r="I6" s="1">
+        <v>64</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K6" s="1">
+        <v>712</v>
+      </c>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" ht="16" customHeight="1">
       <c r="B7" s="1" t="s">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="C7" s="1">
-        <v>1.7</v>
+        <v>0.435</v>
       </c>
       <c r="D7" s="1">
         <v>10</v>
       </c>
       <c r="E7" s="1">
-        <v>169</v>
+        <v>134</v>
       </c>
       <c r="F7" s="1">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G7" s="1">
         <v>2</v>
@@ -1188,46 +1408,24 @@
         <v>64</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K7" s="1">
-        <v>924</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
     <row r="8" spans="1:14">
-      <c r="B8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="1">
-        <v>1.7</v>
-      </c>
-      <c r="D8" s="1">
-        <v>10</v>
-      </c>
-      <c r="E8" s="1">
-        <v>169</v>
-      </c>
-      <c r="F8" s="1">
-        <v>32</v>
-      </c>
-      <c r="G8" s="1">
-        <v>2</v>
-      </c>
-      <c r="H8" s="1">
-        <v>64</v>
-      </c>
-      <c r="I8" s="1">
-        <v>64</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K8" s="1">
-        <v>1145</v>
-      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
@@ -1252,16 +1450,16 @@
         <v>2</v>
       </c>
       <c r="H9" s="1">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="I9" s="1">
         <v>64</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="K9" s="1">
-        <v>1170</v>
+        <v>924</v>
       </c>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
@@ -1293,10 +1491,10 @@
         <v>64</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="K10" s="1">
-        <v>1032.4000000000001</v>
+        <v>1145</v>
       </c>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
@@ -1328,39 +1526,59 @@
         <v>64</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="K11" s="1">
-        <v>926.6</v>
+        <v>1170</v>
       </c>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
     </row>
     <row r="12" spans="1:14">
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="D12" s="1">
+        <v>10</v>
+      </c>
+      <c r="E12" s="1">
+        <v>169</v>
+      </c>
+      <c r="F12" s="1">
+        <v>32</v>
+      </c>
+      <c r="G12" s="1">
+        <v>2</v>
+      </c>
+      <c r="H12" s="1">
+        <v>64</v>
+      </c>
+      <c r="I12" s="1">
+        <v>64</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K12" s="1">
+        <v>1032.4000000000001</v>
+      </c>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
     </row>
     <row r="13" spans="1:14">
       <c r="B13" s="1" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C13" s="1">
-        <v>127</v>
+        <v>1.7</v>
       </c>
       <c r="D13" s="1">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="E13" s="1">
         <v>169</v>
@@ -1369,53 +1587,38 @@
         <v>32</v>
       </c>
       <c r="G13" s="1">
+        <v>2</v>
+      </c>
+      <c r="H13" s="1">
+        <v>32</v>
+      </c>
+      <c r="I13" s="1">
+        <v>64</v>
+      </c>
+      <c r="J13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H13" s="1">
-        <v>256</v>
-      </c>
-      <c r="I13" s="1">
-        <v>256</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="K13" s="1">
-        <v>9586</v>
+        <v>926.6</v>
       </c>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
     </row>
     <row r="14" spans="1:14">
-      <c r="B14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="1">
-        <v>127</v>
-      </c>
-      <c r="D14" s="1">
-        <v>40</v>
-      </c>
-      <c r="E14" s="1">
-        <v>169</v>
-      </c>
-      <c r="F14" s="1">
-        <v>32</v>
-      </c>
-      <c r="G14" s="1">
-        <v>8</v>
-      </c>
-      <c r="H14" s="1">
-        <v>256</v>
-      </c>
-      <c r="I14" s="1">
-        <v>256</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
       <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
     </row>
     <row r="15" spans="1:14">
       <c r="B15" s="1" t="s">
@@ -1437,185 +1640,249 @@
         <v>8</v>
       </c>
       <c r="H15" s="1">
-        <v>128</v>
+        <v>256</v>
       </c>
       <c r="I15" s="1">
         <v>256</v>
       </c>
       <c r="J15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K15" s="1">
+        <v>9586</v>
+      </c>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="B16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="1">
+        <v>127</v>
+      </c>
+      <c r="D16" s="1">
+        <v>40</v>
+      </c>
+      <c r="E16" s="1">
+        <v>169</v>
+      </c>
+      <c r="F16" s="1">
+        <v>32</v>
+      </c>
+      <c r="G16" s="1">
+        <v>8</v>
+      </c>
+      <c r="H16" s="1">
+        <v>256</v>
+      </c>
+      <c r="I16" s="1">
+        <v>256</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K16" s="1"/>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="B17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="1">
+        <v>127</v>
+      </c>
+      <c r="D17" s="1">
+        <v>40</v>
+      </c>
+      <c r="E17" s="1">
+        <v>169</v>
+      </c>
+      <c r="F17" s="1">
+        <v>32</v>
+      </c>
+      <c r="G17" s="1">
+        <v>8</v>
+      </c>
+      <c r="H17" s="1">
+        <v>128</v>
+      </c>
+      <c r="I17" s="1">
+        <v>256</v>
+      </c>
+      <c r="J17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K15" s="1">
+      <c r="K17" s="1">
         <v>7582</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="9" customFormat="1" ht="33" thickBot="1">
-      <c r="C21" s="2" t="s">
+    <row r="23" spans="1:11" s="9" customFormat="1" ht="33" thickBot="1">
+      <c r="C23" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D23" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="16" thickTop="1">
-      <c r="B22" s="8" t="s">
+    <row r="24" spans="1:11" ht="16" thickTop="1">
+      <c r="B24" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="8">
+      <c r="C24" s="8">
         <v>70</v>
       </c>
-      <c r="D22">
+      <c r="D24">
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
-      <c r="B23" s="8" t="s">
+    <row r="25" spans="1:11">
+      <c r="B25" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="8">
+      <c r="C25" s="8">
         <v>6</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D25" s="1">
         <v>1.8</v>
       </c>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-    </row>
-    <row r="24" spans="1:11">
-      <c r="B24" s="8" t="s">
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="B26" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="8">
+      <c r="C26" s="8">
         <v>24</v>
       </c>
-      <c r="D24">
+      <c r="D26">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="46" thickBot="1">
-      <c r="B25" s="9" t="s">
+    <row r="27" spans="1:11" ht="46" thickBot="1">
+      <c r="B27" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C27" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="16" thickTop="1"/>
-    <row r="28" spans="1:11">
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-    </row>
-    <row r="30" spans="1:11" ht="20" thickBot="1">
-      <c r="A30" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" ht="16" thickTop="1">
-      <c r="A31" t="s">
+    <row r="28" spans="1:11" ht="16" thickTop="1"/>
+    <row r="30" spans="1:11">
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+    </row>
+    <row r="32" spans="1:11" ht="20" thickBot="1">
+      <c r="A32" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="16" thickTop="1">
+      <c r="A33" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="96" thickBot="1">
-      <c r="A32" s="6"/>
-      <c r="B32" s="6" t="s">
+    <row r="34" spans="1:7" ht="96" thickBot="1">
+      <c r="A34" s="6"/>
+      <c r="B34" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C34" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D32" s="6" t="s">
+      <c r="D34" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E32" s="6" t="s">
+      <c r="E34" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F32" s="6" t="s">
+      <c r="F34" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="G32" s="6" t="s">
+      <c r="G34" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="16" thickTop="1">
-      <c r="A33" s="7">
+    <row r="35" spans="1:7" ht="16" thickTop="1">
+      <c r="A35" s="7">
         <v>1</v>
       </c>
-      <c r="B33" s="7">
+      <c r="B35" s="7">
         <v>127</v>
       </c>
-      <c r="C33" s="7">
+      <c r="C35" s="7">
         <v>1814.29</v>
       </c>
-      <c r="D33" s="7">
+      <c r="D35" s="7">
         <v>21166.67</v>
       </c>
-      <c r="E33" s="7">
+      <c r="E35" s="7">
         <v>7105.67</v>
       </c>
-      <c r="F33" s="7" t="s">
+      <c r="F35" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="G33" s="7">
+      <c r="G35" s="7">
         <v>7105</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="7">
-        <v>2</v>
-      </c>
-      <c r="B34" s="7">
+    <row r="36" spans="1:7">
+      <c r="A36" s="7">
+        <v>2</v>
+      </c>
+      <c r="B36" s="7">
         <v>9</v>
       </c>
-      <c r="C34" s="7">
+      <c r="C36" s="7">
         <v>128.57</v>
       </c>
-      <c r="D34" s="7" t="s">
+      <c r="D36" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E34" s="7" t="s">
+      <c r="E36" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="F36" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="G34" s="7">
+      <c r="G36" s="7">
         <v>128</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="7">
+    <row r="37" spans="1:7">
+      <c r="A37" s="7">
         <v>3</v>
       </c>
-      <c r="B35" s="7">
+      <c r="B37" s="7">
         <v>3.81</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C37" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D35" s="7" t="s">
+      <c r="D37" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E35" s="7" t="s">
+      <c r="E37" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F35" s="7">
+      <c r="F37" s="7">
         <v>158.33000000000001</v>
       </c>
-      <c r="G35" s="7">
+      <c r="G37" s="7">
         <v>158.33000000000001</v>
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
-  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
   </extLst>

--- a/papers/tg11-dare/data_tg.xlsx
+++ b/papers/tg11-dare/data_tg.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="10800" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="159" activeTab="1"/>
+    <workbookView xWindow="3360" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="159" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -299,7 +299,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="101">
+  <cellStyleXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -309,6 +309,28 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -424,7 +446,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
   </cellXfs>
-  <cellStyles count="101">
+  <cellStyles count="123">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -474,6 +496,17 @@
     <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
     <cellStyle name="Heading 1" xfId="8" builtinId="16"/>
     <cellStyle name="Heading 2" xfId="1" builtinId="17"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
@@ -525,6 +558,17 @@
     <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1184,8 +1228,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/papers/tg11-dare/data_tg.xlsx
+++ b/papers/tg11-dare/data_tg.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3360" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="159" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="159" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="54">
   <si>
     <t>Genome</t>
   </si>
@@ -173,6 +173,15 @@
   </si>
   <si>
     <t>cloud-SI, QB, Ranger</t>
+  </si>
+  <si>
+    <t>Index files</t>
+  </si>
+  <si>
+    <t>Raw Shortreads</t>
+  </si>
+  <si>
+    <t>processed Shortreads</t>
   </si>
 </sst>
 </file>
@@ -299,7 +308,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="123">
+  <cellStyleXfs count="137">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -309,6 +318,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -446,7 +469,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
   </cellXfs>
-  <cellStyles count="123">
+  <cellStyles count="137">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -507,6 +530,13 @@
     <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
     <cellStyle name="Heading 1" xfId="8" builtinId="16"/>
     <cellStyle name="Heading 2" xfId="1" builtinId="17"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
@@ -569,6 +599,13 @@
     <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1226,14 +1263,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N37"/>
+  <dimension ref="A1:N53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
+    <col min="1" max="1" width="22.1640625" customWidth="1"/>
     <col min="2" max="2" width="16.5" customWidth="1"/>
     <col min="3" max="3" width="14.6640625" customWidth="1"/>
     <col min="4" max="4" width="15.6640625" customWidth="1"/>
@@ -1922,6 +1960,101 @@
         <v>158.33000000000001</v>
       </c>
     </row>
+    <row r="47" spans="1:7">
+      <c r="B47" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" t="s">
+        <v>22</v>
+      </c>
+      <c r="B48" s="7">
+        <v>127</v>
+      </c>
+      <c r="C48" s="7">
+        <v>9</v>
+      </c>
+      <c r="D48" s="7">
+        <v>3.81</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>23</v>
+      </c>
+      <c r="B49" s="7">
+        <v>1814.29</v>
+      </c>
+      <c r="C49" s="7">
+        <v>128.57</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>24</v>
+      </c>
+      <c r="B50" s="7">
+        <v>21166.67</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>25</v>
+      </c>
+      <c r="B51" s="7">
+        <v>7105.67</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>26</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D52" s="7">
+        <v>158.33000000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>27</v>
+      </c>
+      <c r="B53" s="7">
+        <v>7105</v>
+      </c>
+      <c r="C53" s="7">
+        <v>128</v>
+      </c>
+      <c r="D53" s="7">
+        <v>158.33000000000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/papers/tg11-dare/data_tg.xlsx
+++ b/papers/tg11-dare/data_tg.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="159" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="159"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="ngs" sheetId="2" r:id="rId1"/>
+    <sheet name="namd" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="68">
   <si>
     <t>Genome</t>
   </si>
@@ -182,6 +182,49 @@
   </si>
   <si>
     <t>processed Shortreads</t>
+  </si>
+  <si>
+    <t>4,2,12,12</t>
+  </si>
+  <si>
+    <t>Number of NAMD tasks</t>
+  </si>
+  <si>
+    <t>Resources</t>
+  </si>
+  <si>
+    <t>Sierra-cl</t>
+  </si>
+  <si>
+    <t>Nodes/vms</t>
+  </si>
+  <si>
+    <t>32, 32</t>
+  </si>
+  <si>
+    <t>4,2</t>
+  </si>
+  <si>
+    <t>Ranger, QB, Sierra-cld</t>
+  </si>
+  <si>
+    <t>Tasks per resource</t>
+  </si>
+  <si>
+    <t>2,3,3</t>
+  </si>
+  <si>
+    <t>16,24,24</t>
+  </si>
+  <si>
+    <t>1,3,3</t>
+  </si>
+  <si>
+    <t>TTC(S)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">151
+</t>
   </si>
 </sst>
 </file>
@@ -308,7 +351,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="137">
+  <cellStyleXfs count="153">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -446,8 +489,24 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
@@ -468,8 +527,11 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="137">
+  <cellStyles count="153">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -537,6 +599,14 @@
     <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
     <cellStyle name="Heading 1" xfId="8" builtinId="16"/>
     <cellStyle name="Heading 2" xfId="1" builtinId="17"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
@@ -606,6 +676,14 @@
     <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -935,338 +1013,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:L13"/>
+  <dimension ref="A1:N104"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M13" sqref="A3:M13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="2" max="2" width="11.5" customWidth="1"/>
-    <col min="8" max="8" width="17" customWidth="1"/>
-    <col min="12" max="12" width="14.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:12" s="3" customFormat="1" ht="20" thickBot="1">
-      <c r="A2" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" s="2" customFormat="1" ht="50" thickTop="1" thickBot="1">
-      <c r="A3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="16" thickTop="1">
-      <c r="A4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="1">
-        <v>0.435</v>
-      </c>
-      <c r="C4">
-        <v>10</v>
-      </c>
-      <c r="D4">
-        <v>134</v>
-      </c>
-      <c r="E4">
-        <v>30</v>
-      </c>
-      <c r="F4">
-        <v>2</v>
-      </c>
-      <c r="G4">
-        <v>60</v>
-      </c>
-      <c r="H4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I4">
-        <v>32</v>
-      </c>
-      <c r="J4">
-        <v>682.7</v>
-      </c>
-      <c r="K4">
-        <v>102.8</v>
-      </c>
-      <c r="L4">
-        <v>87.4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="1">
-        <v>1.7</v>
-      </c>
-      <c r="C5">
-        <v>10</v>
-      </c>
-      <c r="D5">
-        <v>115</v>
-      </c>
-      <c r="E5">
-        <v>32</v>
-      </c>
-      <c r="F5">
-        <v>2</v>
-      </c>
-      <c r="G5">
-        <v>64</v>
-      </c>
-      <c r="H5" t="s">
-        <v>8</v>
-      </c>
-      <c r="I5">
-        <v>32</v>
-      </c>
-      <c r="J5">
-        <v>926.6</v>
-      </c>
-      <c r="K5">
-        <v>438.2</v>
-      </c>
-      <c r="L5">
-        <v>118.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="1">
-        <v>1.7</v>
-      </c>
-      <c r="C6">
-        <v>10</v>
-      </c>
-      <c r="D6">
-        <v>115</v>
-      </c>
-      <c r="E6">
-        <v>32</v>
-      </c>
-      <c r="F6">
-        <v>2</v>
-      </c>
-      <c r="G6">
-        <v>64</v>
-      </c>
-      <c r="H6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6">
-        <v>64</v>
-      </c>
-      <c r="J6">
-        <v>1032.4000000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" s="1">
-        <v>0.435</v>
-      </c>
-      <c r="C9">
-        <v>10</v>
-      </c>
-      <c r="D9">
-        <v>134</v>
-      </c>
-      <c r="E9">
-        <v>30</v>
-      </c>
-      <c r="F9">
-        <v>2</v>
-      </c>
-      <c r="G9">
-        <v>60</v>
-      </c>
-      <c r="H9" t="s">
-        <v>15</v>
-      </c>
-      <c r="I9">
-        <v>32</v>
-      </c>
-      <c r="J9">
-        <v>955.25</v>
-      </c>
-      <c r="K9">
-        <v>195.71</v>
-      </c>
-      <c r="L9">
-        <v>169.85</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" s="1">
-        <v>1.7</v>
-      </c>
-      <c r="C10">
-        <v>10</v>
-      </c>
-      <c r="D10">
-        <v>115</v>
-      </c>
-      <c r="E10">
-        <v>32</v>
-      </c>
-      <c r="F10">
-        <v>2</v>
-      </c>
-      <c r="G10">
-        <v>64</v>
-      </c>
-      <c r="H10" t="s">
-        <v>15</v>
-      </c>
-      <c r="I10">
-        <v>32</v>
-      </c>
-      <c r="J10">
-        <v>972.46</v>
-      </c>
-      <c r="K10">
-        <v>484.63</v>
-      </c>
-      <c r="L10">
-        <v>195.92</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="1">
-        <v>127</v>
-      </c>
-      <c r="C11">
-        <v>40</v>
-      </c>
-      <c r="D11">
-        <v>115</v>
-      </c>
-      <c r="E11">
-        <v>32</v>
-      </c>
-      <c r="F11">
-        <v>8</v>
-      </c>
-      <c r="G11">
-        <v>256</v>
-      </c>
-      <c r="H11" t="s">
-        <v>15</v>
-      </c>
-      <c r="I11">
-        <v>128</v>
-      </c>
-      <c r="J11">
-        <v>7582</v>
-      </c>
-      <c r="K11">
-        <v>1846.6</v>
-      </c>
-      <c r="L11">
-        <v>221.71</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="1">
-        <v>127</v>
-      </c>
-      <c r="C13">
-        <v>40</v>
-      </c>
-      <c r="D13">
-        <v>115</v>
-      </c>
-      <c r="E13">
-        <v>32</v>
-      </c>
-      <c r="F13">
-        <v>8</v>
-      </c>
-      <c r="G13">
-        <v>256</v>
-      </c>
-      <c r="H13" t="s">
-        <v>19</v>
-      </c>
-      <c r="I13">
-        <v>256</v>
-      </c>
-      <c r="J13">
-        <v>9586</v>
-      </c>
-      <c r="K13">
-        <v>2037</v>
-      </c>
-      <c r="L13">
-        <v>164.5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N53"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1483,8 +1233,8 @@
       <c r="G7" s="1">
         <v>2</v>
       </c>
-      <c r="H7" s="1">
-        <v>64</v>
+      <c r="H7" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="I7" s="1">
         <v>64</v>
@@ -1492,7 +1242,9 @@
       <c r="J7" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="K7" s="1"/>
+      <c r="K7" s="1">
+        <v>1022</v>
+      </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
@@ -1618,36 +1370,16 @@
       <c r="N11" s="1"/>
     </row>
     <row r="12" spans="1:14">
-      <c r="B12" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12" s="1">
-        <v>1.7</v>
-      </c>
-      <c r="D12" s="1">
-        <v>10</v>
-      </c>
-      <c r="E12" s="1">
-        <v>169</v>
-      </c>
-      <c r="F12" s="1">
-        <v>32</v>
-      </c>
-      <c r="G12" s="1">
-        <v>2</v>
-      </c>
-      <c r="H12" s="1">
-        <v>64</v>
-      </c>
-      <c r="I12" s="1">
-        <v>64</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K12" s="1">
-        <v>1032.4000000000001</v>
-      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
@@ -1672,67 +1404,67 @@
         <v>2</v>
       </c>
       <c r="H13" s="1">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="I13" s="1">
         <v>64</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="K13" s="1">
-        <v>926.6</v>
+        <v>1032.4000000000001</v>
       </c>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
     </row>
     <row r="14" spans="1:14">
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
+      <c r="B14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="D14" s="1">
+        <v>10</v>
+      </c>
+      <c r="E14" s="1">
+        <v>169</v>
+      </c>
+      <c r="F14" s="1">
+        <v>32</v>
+      </c>
+      <c r="G14" s="1">
+        <v>2</v>
+      </c>
+      <c r="H14" s="1">
+        <v>32</v>
+      </c>
+      <c r="I14" s="1">
+        <v>64</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K14" s="1">
+        <v>926.6</v>
+      </c>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
     </row>
     <row r="15" spans="1:14">
-      <c r="B15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="1">
-        <v>127</v>
-      </c>
-      <c r="D15" s="1">
-        <v>40</v>
-      </c>
-      <c r="E15" s="1">
-        <v>169</v>
-      </c>
-      <c r="F15" s="1">
-        <v>32</v>
-      </c>
-      <c r="G15" s="1">
-        <v>8</v>
-      </c>
-      <c r="H15" s="1">
-        <v>256</v>
-      </c>
-      <c r="I15" s="1">
-        <v>256</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K15" s="1">
-        <v>9586</v>
-      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
@@ -1763,11 +1495,16 @@
         <v>256</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K16" s="1"/>
-    </row>
-    <row r="17" spans="1:11">
+        <v>19</v>
+      </c>
+      <c r="K16" s="1">
+        <v>9586</v>
+      </c>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+    </row>
+    <row r="17" spans="2:11">
       <c r="B17" s="1" t="s">
         <v>16</v>
       </c>
@@ -1787,241 +1524,257 @@
         <v>8</v>
       </c>
       <c r="H17" s="1">
-        <v>128</v>
+        <v>256</v>
       </c>
       <c r="I17" s="1">
         <v>256</v>
       </c>
       <c r="J17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K17" s="1"/>
+    </row>
+    <row r="18" spans="2:11">
+      <c r="B18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="1">
+        <v>127</v>
+      </c>
+      <c r="D18" s="1">
+        <v>40</v>
+      </c>
+      <c r="E18" s="1">
+        <v>169</v>
+      </c>
+      <c r="F18" s="1">
+        <v>32</v>
+      </c>
+      <c r="G18" s="1">
+        <v>8</v>
+      </c>
+      <c r="H18" s="1">
+        <v>128</v>
+      </c>
+      <c r="I18" s="1">
+        <v>256</v>
+      </c>
+      <c r="J18" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K17" s="1">
+      <c r="K18" s="1">
         <v>7582</v>
       </c>
     </row>
-    <row r="23" spans="1:11" s="9" customFormat="1" ht="33" thickBot="1">
-      <c r="C23" s="2" t="s">
+    <row r="24" spans="2:11" s="9" customFormat="1" ht="33" thickBot="1">
+      <c r="C24" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D24" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="16" thickTop="1">
-      <c r="B24" s="8" t="s">
+    <row r="25" spans="2:11" ht="16" thickTop="1">
+      <c r="B25" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C24" s="8">
+      <c r="C25" s="8">
         <v>70</v>
       </c>
-      <c r="D24">
+      <c r="D25">
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
-      <c r="B25" s="8" t="s">
+    <row r="26" spans="2:11">
+      <c r="B26" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="8">
+      <c r="C26" s="8">
         <v>6</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D26" s="1">
         <v>1.8</v>
       </c>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-    </row>
-    <row r="26" spans="1:11">
-      <c r="B26" s="8" t="s">
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+    </row>
+    <row r="27" spans="2:11">
+      <c r="B27" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C26" s="8">
+      <c r="C27" s="8">
         <v>24</v>
       </c>
-      <c r="D26">
+      <c r="D27">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="46" thickBot="1">
-      <c r="B27" s="9" t="s">
+    <row r="28" spans="2:11" ht="46" thickBot="1">
+      <c r="B28" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C28" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="16" thickTop="1"/>
-    <row r="30" spans="1:11">
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-    </row>
-    <row r="32" spans="1:11" ht="20" thickBot="1">
-      <c r="A32" s="3" t="s">
+    <row r="29" spans="2:11" ht="16" thickTop="1"/>
+    <row r="31" spans="2:11">
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+    </row>
+    <row r="33" spans="1:7" ht="20" thickBot="1">
+      <c r="A33" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="16" thickTop="1">
-      <c r="A33" t="s">
+    <row r="34" spans="1:7" ht="16" thickTop="1">
+      <c r="A34" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="96" thickBot="1">
-      <c r="A34" s="6"/>
-      <c r="B34" s="6" t="s">
+    <row r="35" spans="1:7" ht="96" thickBot="1">
+      <c r="A35" s="6"/>
+      <c r="B35" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="C35" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D34" s="6" t="s">
+      <c r="D35" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E34" s="6" t="s">
+      <c r="E35" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F34" s="6" t="s">
+      <c r="F35" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="G34" s="6" t="s">
+      <c r="G35" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="16" thickTop="1">
-      <c r="A35" s="7">
+    <row r="36" spans="1:7" ht="16" thickTop="1">
+      <c r="A36" s="7">
         <v>1</v>
       </c>
-      <c r="B35" s="7">
+      <c r="B36" s="7">
         <v>127</v>
       </c>
-      <c r="C35" s="7">
+      <c r="C36" s="7">
         <v>1814.29</v>
       </c>
-      <c r="D35" s="7">
+      <c r="D36" s="7">
         <v>21166.67</v>
       </c>
-      <c r="E35" s="7">
+      <c r="E36" s="7">
         <v>7105.67</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G35" s="7">
-        <v>7105</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="7">
-        <v>2</v>
-      </c>
-      <c r="B36" s="7">
-        <v>9</v>
-      </c>
-      <c r="C36" s="7">
-        <v>128.57</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>30</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>28</v>
       </c>
       <c r="G36" s="7">
-        <v>128</v>
+        <v>7105</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B37" s="7">
-        <v>3.81</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>31</v>
+        <v>9</v>
+      </c>
+      <c r="C37" s="7">
+        <v>128.57</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E37" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F37" s="7">
+      <c r="F37" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G37" s="7">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="7">
+        <v>3</v>
+      </c>
+      <c r="B38" s="7">
+        <v>3.81</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F38" s="7">
         <v>158.33000000000001</v>
       </c>
-      <c r="G37" s="7">
+      <c r="G38" s="7">
         <v>158.33000000000001</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
-      <c r="B47" s="7" t="s">
+    <row r="48" spans="1:7">
+      <c r="B48" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C47" s="7" t="s">
+      <c r="C48" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="D47" s="7" t="s">
+      <c r="D48" s="7" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
-      <c r="A48" t="s">
-        <v>22</v>
-      </c>
-      <c r="B48" s="7">
-        <v>127</v>
-      </c>
-      <c r="C48" s="7">
-        <v>9</v>
-      </c>
-      <c r="D48" s="7">
-        <v>3.81</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B49" s="7">
-        <v>1814.29</v>
+        <v>127</v>
       </c>
       <c r="C49" s="7">
-        <v>128.57</v>
-      </c>
-      <c r="D49" s="7" t="s">
-        <v>31</v>
+        <v>9</v>
+      </c>
+      <c r="D49" s="7">
+        <v>3.81</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B50" s="7">
-        <v>21166.67</v>
-      </c>
-      <c r="C50" s="7" t="s">
-        <v>29</v>
+        <v>1814.29</v>
+      </c>
+      <c r="C50" s="7">
+        <v>128.57</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B51" s="7">
-        <v>7105.67</v>
+        <v>21166.67</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D51" s="7" t="s">
         <v>30</v>
@@ -2029,30 +1782,499 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>26</v>
-      </c>
-      <c r="B52" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
+      </c>
+      <c r="B52" s="7">
+        <v>7105.67</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D52" s="7">
-        <v>158.33000000000001</v>
+        <v>30</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>27</v>
-      </c>
-      <c r="B53" s="7">
-        <v>7105</v>
-      </c>
-      <c r="C53" s="7">
-        <v>128</v>
+        <v>26</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="D53" s="7">
         <v>158.33000000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>27</v>
+      </c>
+      <c r="B54" s="7">
+        <v>7105</v>
+      </c>
+      <c r="C54" s="7">
+        <v>128</v>
+      </c>
+      <c r="D54" s="7">
+        <v>158.33000000000001</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" ht="20" thickBot="1">
+      <c r="A93" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B93" s="3"/>
+      <c r="C93" s="3"/>
+      <c r="D93" s="3"/>
+      <c r="E93" s="3"/>
+      <c r="F93" s="3"/>
+      <c r="G93" s="3"/>
+      <c r="H93" s="3"/>
+      <c r="I93" s="3"/>
+      <c r="J93" s="3"/>
+      <c r="K93" s="3"/>
+      <c r="L93" s="3"/>
+    </row>
+    <row r="94" spans="1:12" ht="50" thickTop="1" thickBot="1">
+      <c r="A94" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H94" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I94" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J94" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K94" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L94" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" ht="16" thickTop="1">
+      <c r="A95" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B95" s="1">
+        <v>0.435</v>
+      </c>
+      <c r="C95">
+        <v>10</v>
+      </c>
+      <c r="D95">
+        <v>134</v>
+      </c>
+      <c r="E95">
+        <v>30</v>
+      </c>
+      <c r="F95">
+        <v>2</v>
+      </c>
+      <c r="G95">
+        <v>60</v>
+      </c>
+      <c r="H95" t="s">
+        <v>8</v>
+      </c>
+      <c r="I95">
+        <v>32</v>
+      </c>
+      <c r="J95">
+        <v>682.7</v>
+      </c>
+      <c r="K95">
+        <v>102.8</v>
+      </c>
+      <c r="L95">
+        <v>87.4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12">
+      <c r="A96" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B96" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="C96">
+        <v>10</v>
+      </c>
+      <c r="D96">
+        <v>115</v>
+      </c>
+      <c r="E96">
+        <v>32</v>
+      </c>
+      <c r="F96">
+        <v>2</v>
+      </c>
+      <c r="G96">
+        <v>64</v>
+      </c>
+      <c r="H96" t="s">
+        <v>8</v>
+      </c>
+      <c r="I96">
+        <v>32</v>
+      </c>
+      <c r="J96">
+        <v>926.6</v>
+      </c>
+      <c r="K96">
+        <v>438.2</v>
+      </c>
+      <c r="L96">
+        <v>118.5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12">
+      <c r="A97" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B97" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="C97">
+        <v>10</v>
+      </c>
+      <c r="D97">
+        <v>115</v>
+      </c>
+      <c r="E97">
+        <v>32</v>
+      </c>
+      <c r="F97">
+        <v>2</v>
+      </c>
+      <c r="G97">
+        <v>64</v>
+      </c>
+      <c r="H97" t="s">
+        <v>14</v>
+      </c>
+      <c r="I97">
+        <v>64</v>
+      </c>
+      <c r="J97">
+        <v>1032.4000000000001</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12">
+      <c r="A100" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B100" s="1">
+        <v>0.435</v>
+      </c>
+      <c r="C100">
+        <v>10</v>
+      </c>
+      <c r="D100">
+        <v>134</v>
+      </c>
+      <c r="E100">
+        <v>30</v>
+      </c>
+      <c r="F100">
+        <v>2</v>
+      </c>
+      <c r="G100">
+        <v>60</v>
+      </c>
+      <c r="H100" t="s">
+        <v>15</v>
+      </c>
+      <c r="I100">
+        <v>32</v>
+      </c>
+      <c r="J100">
+        <v>955.25</v>
+      </c>
+      <c r="K100">
+        <v>195.71</v>
+      </c>
+      <c r="L100">
+        <v>169.85</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12">
+      <c r="A101" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B101" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="C101">
+        <v>10</v>
+      </c>
+      <c r="D101">
+        <v>115</v>
+      </c>
+      <c r="E101">
+        <v>32</v>
+      </c>
+      <c r="F101">
+        <v>2</v>
+      </c>
+      <c r="G101">
+        <v>64</v>
+      </c>
+      <c r="H101" t="s">
+        <v>15</v>
+      </c>
+      <c r="I101">
+        <v>32</v>
+      </c>
+      <c r="J101">
+        <v>972.46</v>
+      </c>
+      <c r="K101">
+        <v>484.63</v>
+      </c>
+      <c r="L101">
+        <v>195.92</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12">
+      <c r="A102" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B102" s="1">
+        <v>127</v>
+      </c>
+      <c r="C102">
+        <v>40</v>
+      </c>
+      <c r="D102">
+        <v>115</v>
+      </c>
+      <c r="E102">
+        <v>32</v>
+      </c>
+      <c r="F102">
+        <v>8</v>
+      </c>
+      <c r="G102">
+        <v>256</v>
+      </c>
+      <c r="H102" t="s">
+        <v>15</v>
+      </c>
+      <c r="I102">
+        <v>128</v>
+      </c>
+      <c r="J102">
+        <v>7582</v>
+      </c>
+      <c r="K102">
+        <v>1846.6</v>
+      </c>
+      <c r="L102">
+        <v>221.71</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12">
+      <c r="A104" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B104" s="1">
+        <v>127</v>
+      </c>
+      <c r="C104">
+        <v>40</v>
+      </c>
+      <c r="D104">
+        <v>115</v>
+      </c>
+      <c r="E104">
+        <v>32</v>
+      </c>
+      <c r="F104">
+        <v>8</v>
+      </c>
+      <c r="G104">
+        <v>256</v>
+      </c>
+      <c r="H104" t="s">
+        <v>19</v>
+      </c>
+      <c r="I104">
+        <v>256</v>
+      </c>
+      <c r="J104">
+        <v>9586</v>
+      </c>
+      <c r="K104">
+        <v>2037</v>
+      </c>
+      <c r="L104">
+        <v>164.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:G8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="11.5" customWidth="1"/>
+    <col min="3" max="3" width="20.1640625" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" customWidth="1"/>
+    <col min="8" max="8" width="17" customWidth="1"/>
+    <col min="12" max="12" width="14.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" s="3" customFormat="1" ht="20" thickBot="1"/>
+    <row r="3" spans="2:7" s="2" customFormat="1" ht="50" thickTop="1" thickBot="1">
+      <c r="B3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="16" thickTop="1">
+      <c r="B4">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4">
+        <v>8</v>
+      </c>
+      <c r="E4">
+        <v>64</v>
+      </c>
+      <c r="F4">
+        <v>8</v>
+      </c>
+      <c r="G4">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="30">
+      <c r="B5">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5">
+        <v>8</v>
+      </c>
+      <c r="E5">
+        <v>64</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="B6">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6">
+        <v>8</v>
+      </c>
+      <c r="E6">
+        <v>64</v>
+      </c>
+      <c r="F6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/papers/tg11-dare/data_tg.xlsx
+++ b/papers/tg11-dare/data_tg.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="159"/>
+    <workbookView xWindow="0" yWindow="20" windowWidth="25600" windowHeight="16060" tabRatio="159" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ngs" sheetId="2" r:id="rId1"/>
@@ -223,8 +223,8 @@
     <t>TTC(S)</t>
   </si>
   <si>
-    <t xml:space="preserve">151
-</t>
+    <t xml:space="preserve">
+141</t>
   </si>
 </sst>
 </file>
@@ -1015,7 +1015,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N104"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2:H2"/>
     </sheetView>
   </sheetViews>
@@ -2151,8 +2151,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2203,7 +2203,7 @@
         <v>8</v>
       </c>
       <c r="G4">
-        <v>778</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="30">
@@ -2217,10 +2217,10 @@
         <v>8</v>
       </c>
       <c r="E5">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="F5">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>67</v>

--- a/papers/tg11-dare/data_tg.xlsx
+++ b/papers/tg11-dare/data_tg.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="20" windowWidth="25600" windowHeight="16060" tabRatio="159" activeTab="1"/>
+    <workbookView xWindow="9100" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="159" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ngs" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="66">
   <si>
     <t>Genome</t>
   </si>
@@ -199,12 +199,6 @@
     <t>Nodes/vms</t>
   </si>
   <si>
-    <t>32, 32</t>
-  </si>
-  <si>
-    <t>4,2</t>
-  </si>
-  <si>
     <t>Ranger, QB, Sierra-cld</t>
   </si>
   <si>
@@ -214,17 +208,16 @@
     <t>2,3,3</t>
   </si>
   <si>
-    <t>16,24,24</t>
-  </si>
-  <si>
-    <t>1,3,3</t>
-  </si>
-  <si>
     <t>TTC(S)</t>
   </si>
   <si>
-    <t xml:space="preserve">
-141</t>
+    <t>4,4</t>
+  </si>
+  <si>
+    <t>64, 32</t>
+  </si>
+  <si>
+    <t>32,24,24</t>
   </si>
 </sst>
 </file>
@@ -351,7 +344,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="153">
+  <cellStyleXfs count="161">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -361,6 +354,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -531,7 +532,7 @@
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
-  <cellStyles count="153">
+  <cellStyles count="161">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -607,6 +608,10 @@
     <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
     <cellStyle name="Heading 1" xfId="8" builtinId="16"/>
     <cellStyle name="Heading 2" xfId="1" builtinId="17"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
@@ -684,6 +689,10 @@
     <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2152,7 +2161,7 @@
   <dimension ref="B2:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2174,7 +2183,7 @@
         <v>56</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>48</v>
@@ -2183,7 +2192,7 @@
         <v>58</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="16" thickTop="1">
@@ -2191,7 +2200,7 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="D4">
         <v>8</v>
@@ -2203,15 +2212,15 @@
         <v>8</v>
       </c>
       <c r="G4">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" ht="30">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7">
       <c r="B5">
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="D5">
         <v>8</v>
@@ -2222,8 +2231,8 @@
       <c r="F5">
         <v>8</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>67</v>
+      <c r="G5" s="4">
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="2:7">
@@ -2242,6 +2251,9 @@
       <c r="F6">
         <v>8</v>
       </c>
+      <c r="G6">
+        <v>414.67</v>
+      </c>
     </row>
     <row r="7" spans="2:7">
       <c r="B7">
@@ -2254,10 +2266,13 @@
         <v>4</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>60</v>
+        <v>63</v>
+      </c>
+      <c r="G7">
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="2:7">
@@ -2265,16 +2280,19 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="D8" s="10" t="s">
-        <v>63</v>
-      </c>
       <c r="E8" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>65</v>
+        <v>61</v>
+      </c>
+      <c r="G8">
+        <v>384</v>
       </c>
     </row>
   </sheetData>

--- a/papers/tg11-dare/data_tg.xlsx
+++ b/papers/tg11-dare/data_tg.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="9100" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="159" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="18940" tabRatio="159"/>
   </bookViews>
   <sheets>
     <sheet name="ngs" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="69">
   <si>
     <t>Genome</t>
   </si>
@@ -218,6 +218,15 @@
   </si>
   <si>
     <t>32,24,24</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MB/sec avg</t>
+  </si>
+  <si>
+    <t>17 MBPS</t>
+  </si>
+  <si>
+    <t>96 MBPS</t>
   </si>
 </sst>
 </file>
@@ -344,7 +353,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="161">
+  <cellStyleXfs count="165">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -506,8 +515,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
@@ -531,8 +544,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="18" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="161">
+  <cellStyles count="165">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -612,6 +626,8 @@
     <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
     <cellStyle name="Heading 1" xfId="8" builtinId="16"/>
     <cellStyle name="Heading 2" xfId="1" builtinId="17"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
@@ -693,6 +709,8 @@
     <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1024,8 +1042,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N104"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:H2"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="M36" sqref="M36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1513,7 +1531,7 @@
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
     </row>
-    <row r="17" spans="2:11">
+    <row r="17" spans="2:13">
       <c r="B17" s="1" t="s">
         <v>16</v>
       </c>
@@ -1543,7 +1561,7 @@
       </c>
       <c r="K17" s="1"/>
     </row>
-    <row r="18" spans="2:11">
+    <row r="18" spans="2:13">
       <c r="B18" s="1" t="s">
         <v>16</v>
       </c>
@@ -1575,15 +1593,32 @@
         <v>7582</v>
       </c>
     </row>
-    <row r="24" spans="2:11" s="9" customFormat="1" ht="33" thickBot="1">
+    <row r="23" spans="2:13">
+      <c r="G23" t="s">
+        <v>66</v>
+      </c>
+      <c r="I23" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" s="9" customFormat="1" ht="33" thickBot="1">
       <c r="C24" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="25" spans="2:11" ht="16" thickTop="1">
+      <c r="G24" s="11">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="I24" s="11">
+        <v>0.375</v>
+      </c>
+      <c r="K24" s="11">
+        <v>0.45833333333333331</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" ht="16" thickTop="1">
       <c r="B25" s="8" t="s">
         <v>36</v>
       </c>
@@ -1593,8 +1628,14 @@
       <c r="D25">
         <v>33</v>
       </c>
-    </row>
-    <row r="26" spans="2:11">
+      <c r="G25">
+        <v>113</v>
+      </c>
+      <c r="I25">
+        <v>113.17</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13">
       <c r="B26" s="8" t="s">
         <v>37</v>
       </c>
@@ -1606,13 +1647,17 @@
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
+      <c r="G26" s="1">
+        <v>22.91</v>
+      </c>
       <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
+      <c r="I26" s="1">
+        <v>23</v>
+      </c>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
     </row>
-    <row r="27" spans="2:11">
+    <row r="27" spans="2:13">
       <c r="B27" s="8" t="s">
         <v>38</v>
       </c>
@@ -1623,7 +1668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:11" ht="46" thickBot="1">
+    <row r="28" spans="2:13" ht="46" thickBot="1">
       <c r="B28" s="9" t="s">
         <v>41</v>
       </c>
@@ -1631,22 +1676,79 @@
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="2:11" ht="16" thickTop="1"/>
-    <row r="31" spans="2:11">
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-    </row>
-    <row r="33" spans="1:7" ht="20" thickBot="1">
+    <row r="29" spans="2:13" ht="34" thickTop="1" thickBot="1">
+      <c r="B29" s="9"/>
+      <c r="C29" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" ht="16" thickTop="1">
+      <c r="B30" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13">
+      <c r="B31" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13">
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="G32">
+        <f>127000/113</f>
+        <v>1123.8938053097345</v>
+      </c>
+      <c r="H32">
+        <f>127000/23</f>
+        <v>5521.739130434783</v>
+      </c>
+      <c r="J32">
+        <f>9000/113</f>
+        <v>79.646017699115049</v>
+      </c>
+      <c r="L32">
+        <f>3810/113</f>
+        <v>33.716814159292035</v>
+      </c>
+      <c r="M32">
+        <f>3810/70</f>
+        <v>54.428571428571431</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="20" thickBot="1">
       <c r="A33" s="3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" ht="16" thickTop="1">
+      <c r="J33">
+        <f>9000/6</f>
+        <v>1500</v>
+      </c>
+      <c r="L33">
+        <f>3810/6</f>
+        <v>635</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="16" thickTop="1">
       <c r="A34" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" ht="96" thickBot="1">
+      <c r="J34">
+        <f>9000/24</f>
+        <v>375</v>
+      </c>
+      <c r="L34">
+        <f>3810/24</f>
+        <v>158.75</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="96" thickBot="1">
       <c r="A35" s="6"/>
       <c r="B35" s="6" t="s">
         <v>22</v>
@@ -1667,7 +1769,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="16" thickTop="1">
+    <row r="36" spans="1:12" ht="16" thickTop="1">
       <c r="A36" s="7">
         <v>1</v>
       </c>
@@ -1690,7 +1792,7 @@
         <v>7105</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:12">
       <c r="A37" s="7">
         <v>2</v>
       </c>
@@ -1713,7 +1815,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:12">
       <c r="A38" s="7">
         <v>3</v>
       </c>
@@ -1736,7 +1838,7 @@
         <v>158.33000000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:12">
       <c r="B48" s="7" t="s">
         <v>51</v>
       </c>
@@ -2160,7 +2262,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>

--- a/papers/tg11-dare/data_tg.xlsx
+++ b/papers/tg11-dare/data_tg.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="18940" tabRatio="159"/>
+    <workbookView xWindow="2800" yWindow="380" windowWidth="25600" windowHeight="15940" tabRatio="263" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ngs" sheetId="2" r:id="rId1"/>
     <sheet name="namd" sheetId="1" r:id="rId2"/>
+    <sheet name="file transfer" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="70">
   <si>
     <t>Genome</t>
   </si>
@@ -227,6 +228,9 @@
   </si>
   <si>
     <t>96 MBPS</t>
+  </si>
+  <si>
+    <t>old Speeds</t>
   </si>
 </sst>
 </file>
@@ -353,7 +357,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="165">
+  <cellStyleXfs count="175">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -363,6 +367,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -546,7 +560,7 @@
     </xf>
     <xf numFmtId="18" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="165">
+  <cellStyles count="175">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -628,6 +642,11 @@
     <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="174" builtinId="9" hidden="1"/>
     <cellStyle name="Heading 1" xfId="8" builtinId="16"/>
     <cellStyle name="Heading 2" xfId="1" builtinId="17"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
@@ -711,6 +730,11 @@
     <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="173" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1042,8 +1066,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="M36" sqref="M36"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1615,7 +1639,7 @@
         <v>0.375</v>
       </c>
       <c r="K24" s="11">
-        <v>0.45833333333333331</v>
+        <v>0.6875</v>
       </c>
     </row>
     <row r="25" spans="2:13" ht="16" thickTop="1">
@@ -1634,6 +1658,9 @@
       <c r="I25">
         <v>113.17</v>
       </c>
+      <c r="K25">
+        <v>112</v>
+      </c>
     </row>
     <row r="26" spans="2:13">
       <c r="B26" s="8" t="s">
@@ -1648,14 +1675,16 @@
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1">
-        <v>22.91</v>
+        <v>26.91</v>
       </c>
       <c r="H26" s="1"/>
       <c r="I26" s="1">
         <v>23</v>
       </c>
       <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
+      <c r="K26" s="1">
+        <v>24</v>
+      </c>
     </row>
     <row r="27" spans="2:13">
       <c r="B27" s="8" t="s">
@@ -2263,7 +2292,7 @@
   <dimension ref="B2:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2406,4 +2435,97 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="15.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="C1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="17" thickBot="1">
+      <c r="C2" s="11">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="D2" s="9"/>
+      <c r="E2" s="11">
+        <v>0.375</v>
+      </c>
+      <c r="F2" s="9"/>
+      <c r="G2" s="11">
+        <v>0.6875</v>
+      </c>
+      <c r="I2" s="11">
+        <v>0.5625</v>
+      </c>
+      <c r="K2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="16" thickTop="1">
+      <c r="A3" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3">
+        <v>113</v>
+      </c>
+      <c r="E3">
+        <v>113.17</v>
+      </c>
+      <c r="G3">
+        <v>112</v>
+      </c>
+      <c r="I3">
+        <v>110</v>
+      </c>
+      <c r="K3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="1">
+        <v>26.91</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1">
+        <v>23.6</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1">
+        <v>24.3</v>
+      </c>
+      <c r="I4">
+        <v>24.2</v>
+      </c>
+      <c r="K4">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>